--- a/data/trans_orig/P33B_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R2-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>63370</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48937</v>
+        <v>49998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79730</v>
+        <v>80928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.115089527084735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08887647719471251</v>
+        <v>0.09080420151515174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1448008248987621</v>
+        <v>0.1469772827592022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -762,19 +762,19 @@
         <v>72268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60546</v>
+        <v>60366</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86772</v>
+        <v>85624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1479647670178778</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1239647458263658</v>
+        <v>0.123596440825928</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1776618101060229</v>
+        <v>0.1753119008367233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -783,19 +783,19 @@
         <v>135638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115973</v>
+        <v>116205</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154887</v>
+        <v>155002</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1305430155898874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1116167182034297</v>
+        <v>0.1118403455291569</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1490693893810145</v>
+        <v>0.1491800462427156</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>487248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>470888</v>
+        <v>469690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>501681</v>
+        <v>500620</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8849104729152651</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.855199175101238</v>
+        <v>0.8530227172407976</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9111235228052874</v>
+        <v>0.9091957984848481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>576</v>
@@ -833,19 +833,19 @@
         <v>416143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>401639</v>
+        <v>402787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427865</v>
+        <v>428045</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8520352329821222</v>
+        <v>0.8520352329821221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8223381898939769</v>
+        <v>0.8246880991632768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8760352541736341</v>
+        <v>0.876403559174072</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1062</v>
@@ -854,19 +854,19 @@
         <v>903391</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>884142</v>
+        <v>884027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>923056</v>
+        <v>922824</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8694569844101127</v>
+        <v>0.8694569844101124</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8509306106189855</v>
+        <v>0.8508199537572844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8883832817965702</v>
+        <v>0.888159654470843</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>57518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43541</v>
+        <v>45188</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70989</v>
+        <v>72369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1190324624954884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09010697976684692</v>
+        <v>0.09351603994497856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1469111276026361</v>
+        <v>0.1497660819658632</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -979,19 +979,19 @@
         <v>79412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65673</v>
+        <v>66475</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92819</v>
+        <v>93619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1876719492297985</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.155204016331829</v>
+        <v>0.1570986953958192</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2193560920693102</v>
+        <v>0.2212473673226271</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>182</v>
@@ -1000,19 +1000,19 @@
         <v>136930</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118075</v>
+        <v>118405</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155779</v>
+        <v>156141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1510776415796457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1302749957079292</v>
+        <v>0.1306381405581583</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1718743514891477</v>
+        <v>0.1722734008155087</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>425694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>412223</v>
+        <v>410843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>439671</v>
+        <v>438024</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8809675375045117</v>
+        <v>0.8809675375045116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.853088872397364</v>
+        <v>0.8502339180341368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9098930202331531</v>
+        <v>0.9064839600550215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -1050,19 +1050,19 @@
         <v>343731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330324</v>
+        <v>329524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357470</v>
+        <v>356668</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8123280507702014</v>
+        <v>0.8123280507702013</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7806439079306898</v>
+        <v>0.7787526326773728</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8447959836681709</v>
+        <v>0.8429013046041808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>889</v>
@@ -1071,19 +1071,19 @@
         <v>769425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>750576</v>
+        <v>750214</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>788280</v>
+        <v>787950</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8489223584203544</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8281256485108524</v>
+        <v>0.8277265991844914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8697250042920708</v>
+        <v>0.8693618594418417</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>85520</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71244</v>
+        <v>69659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103744</v>
+        <v>102607</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1813346612707673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1510650835989715</v>
+        <v>0.1477036105057325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2199766163487869</v>
+        <v>0.2175669116607115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1196,19 +1196,19 @@
         <v>50029</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40682</v>
+        <v>40405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60680</v>
+        <v>60229</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.266826920233433</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2169765775400385</v>
+        <v>0.2154979143637628</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3236295913410608</v>
+        <v>0.3212265746682027</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -1217,19 +1217,19 @@
         <v>135549</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114585</v>
+        <v>116125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153989</v>
+        <v>156817</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2056547152224828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1738484910889251</v>
+        <v>0.1761846242840792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2336315271262612</v>
+        <v>0.2379223060893375</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>386092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>367868</v>
+        <v>369005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400368</v>
+        <v>401953</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8186653387292329</v>
+        <v>0.8186653387292327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7800233836512133</v>
+        <v>0.7824330883392887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8489349164010287</v>
+        <v>0.8522963894942676</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -1267,19 +1267,19 @@
         <v>137468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126817</v>
+        <v>127268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146815</v>
+        <v>147092</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7331730797665669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6763704086589392</v>
+        <v>0.6787734253317973</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7830234224599615</v>
+        <v>0.7845020856362371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>605</v>
@@ -1288,19 +1288,19 @@
         <v>523560</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>505120</v>
+        <v>502292</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>544524</v>
+        <v>542984</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7943452847775173</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7663684728737387</v>
+        <v>0.7620776939106625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8261515089110748</v>
+        <v>0.8238153757159203</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>183161</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158241</v>
+        <v>161249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207301</v>
+        <v>208959</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1618257094921097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1398085116643874</v>
+        <v>0.1424655834672429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1831530950168207</v>
+        <v>0.1846187443277297</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>272</v>
@@ -1413,19 +1413,19 @@
         <v>180985</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>162227</v>
+        <v>161405</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201463</v>
+        <v>201486</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2101522471068894</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1883704171034176</v>
+        <v>0.1874163590325352</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2339297039964882</v>
+        <v>0.2339565031948424</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>482</v>
@@ -1434,19 +1434,19 @@
         <v>364147</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>333961</v>
+        <v>334791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>397456</v>
+        <v>400305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1827079142906763</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1675625873644664</v>
+        <v>0.1679786868155939</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1994205176953266</v>
+        <v>0.2008499519568463</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>948682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>924542</v>
+        <v>922884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>973602</v>
+        <v>970594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8381742905078904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8168469049831794</v>
+        <v>0.8153812556722704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8601914883356129</v>
+        <v>0.8575344165327571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>958</v>
@@ -1484,19 +1484,19 @@
         <v>680226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>659748</v>
+        <v>659725</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698984</v>
+        <v>699806</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7898477528931106</v>
+        <v>0.7898477528931107</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7660702960035117</v>
+        <v>0.7660434968051576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8116295828965823</v>
+        <v>0.8125836409674646</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1866</v>
@@ -1505,19 +1505,19 @@
         <v>1628907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1595598</v>
+        <v>1592749</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1659093</v>
+        <v>1658263</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8172920857093237</v>
+        <v>0.8172920857093238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8005794823046735</v>
+        <v>0.7991500480431537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8324374126355333</v>
+        <v>0.8320213131844061</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>84860</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68235</v>
+        <v>68240</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103993</v>
+        <v>105332</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1496966717706895</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1203681325682389</v>
+        <v>0.120377308509958</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1834471394485741</v>
+        <v>0.1858086913472429</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>401</v>
@@ -1630,19 +1630,19 @@
         <v>244957</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>222944</v>
+        <v>222656</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>266994</v>
+        <v>266228</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2950831985877711</v>
+        <v>0.295083198587771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2685665270652361</v>
+        <v>0.2682191323936824</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3216300194441812</v>
+        <v>0.3207080742128052</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>497</v>
@@ -1651,19 +1651,19 @@
         <v>329817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>301833</v>
+        <v>300140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>356925</v>
+        <v>357810</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.236087895880824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2160562458682515</v>
+        <v>0.2148445678163235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2554920720265477</v>
+        <v>0.2561256662396455</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>482022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>462889</v>
+        <v>461550</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>498647</v>
+        <v>498642</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8503033282293105</v>
+        <v>0.8503033282293102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8165528605514256</v>
+        <v>0.814191308652757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8796318674317609</v>
+        <v>0.8796226914900419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>888</v>
@@ -1701,19 +1701,19 @@
         <v>585170</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>563133</v>
+        <v>563899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>607183</v>
+        <v>607471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.704916801412229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6783699805558187</v>
+        <v>0.6792919257871948</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7314334729347636</v>
+        <v>0.7317808676063176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1338</v>
@@ -1722,19 +1722,19 @@
         <v>1067192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1040084</v>
+        <v>1039199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1095176</v>
+        <v>1096869</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7639121041191761</v>
+        <v>0.7639121041191762</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7445079279734524</v>
+        <v>0.7438743337603547</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7839437541317487</v>
+        <v>0.7851554321836767</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>11307</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4599</v>
+        <v>4633</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27379</v>
+        <v>25846</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04766236501641678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01938607371593462</v>
+        <v>0.01953136993847406</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1154133953904459</v>
+        <v>0.1089490528354581</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>318</v>
@@ -1847,19 +1847,19 @@
         <v>197781</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>176857</v>
+        <v>177740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>219902</v>
+        <v>217854</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2342590989449257</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2094760774525171</v>
+        <v>0.2105221177859043</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.260460908030602</v>
+        <v>0.2580348311835534</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>326</v>
@@ -1868,19 +1868,19 @@
         <v>209087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>185473</v>
+        <v>186125</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>235399</v>
+        <v>238269</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.193329311228547</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.171494656754818</v>
+        <v>0.1720978509652821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2176576898239783</v>
+        <v>0.2203116650432213</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>225921</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209849</v>
+        <v>211382</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232629</v>
+        <v>232595</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9523376349835831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8845866046095541</v>
+        <v>0.8910509471645421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9806139262840653</v>
+        <v>0.9804686300615261</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>841</v>
@@ -1918,19 +1918,19 @@
         <v>646500</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>624379</v>
+        <v>626427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>667424</v>
+        <v>666541</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7657409010550743</v>
+        <v>0.7657409010550744</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7395390919693978</v>
+        <v>0.7419651688164466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7905239225474825</v>
+        <v>0.7894778822140955</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>945</v>
@@ -1939,19 +1939,19 @@
         <v>872422</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>846110</v>
+        <v>843240</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>896036</v>
+        <v>895384</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8066706887714531</v>
+        <v>0.806670688771453</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7823423101760214</v>
+        <v>0.779688334956779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8285053432451818</v>
+        <v>0.8279021490347181</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>485736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>447745</v>
+        <v>445704</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>529043</v>
+        <v>532285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1411451973496128</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1301058398768632</v>
+        <v>0.1295125034669226</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1537292840392257</v>
+        <v>0.1546714124444759</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1293</v>
@@ -2064,19 +2064,19 @@
         <v>825431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>786774</v>
+        <v>783040</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>871392</v>
+        <v>867242</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2270994204402327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2164636600364476</v>
+        <v>0.2154362354042218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2397444817798565</v>
+        <v>0.2386027928734196</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1837</v>
@@ -2085,19 +2085,19 @@
         <v>1311168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1253642</v>
+        <v>1252244</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1373749</v>
+        <v>1373992</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1852961896100755</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1771665919928186</v>
+        <v>0.1769689831392752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1941403120961104</v>
+        <v>0.1941746436374738</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2955658</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2912351</v>
+        <v>2909109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2993649</v>
+        <v>2995690</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8588548026503872</v>
+        <v>0.8588548026503873</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8462707159607743</v>
+        <v>0.8453285875555241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8698941601231369</v>
+        <v>0.8704874965330777</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3950</v>
@@ -2135,19 +2135,19 @@
         <v>2809239</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2763278</v>
+        <v>2767428</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2847896</v>
+        <v>2851630</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7729005795597671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7602555182201438</v>
+        <v>0.7613972071265804</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7835363399635524</v>
+        <v>0.7845637645957781</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6705</v>
@@ -2156,19 +2156,19 @@
         <v>5764896</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5702315</v>
+        <v>5702072</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5822422</v>
+        <v>5823820</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8147038103899245</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8058596879038894</v>
+        <v>0.8058253563625262</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8228334080071813</v>
+        <v>0.8230310168607248</v>
       </c>
     </row>
     <row r="24">
